--- a/resources/WC-2009/WC-2009.xlsx
+++ b/resources/WC-2009/WC-2009.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cp\Documents\GitHub\DecatlonEstadistics\resources\WC-2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cp/Desktop/DecatlonEstadistics-master/resources/WC-2009/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68249197-CDBD-4A66-A26D-2782E216EFF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E49C0C-FE37-6B4E-85FA-361C46EFD47C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{34DEB7DA-1114-4C00-A5A7-79B4D4252A4A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{34DEB7DA-1114-4C00-A5A7-79B4D4252A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>Pos</t>
   </si>
@@ -132,114 +132,18 @@
     <t>ESP</t>
   </si>
   <si>
-    <t>11.04s</t>
-  </si>
-  <si>
-    <t>4.80m</t>
-  </si>
-  <si>
     <t>KAZ</t>
   </si>
   <si>
-    <t>7.19m</t>
-  </si>
-  <si>
-    <t>5.00m</t>
-  </si>
-  <si>
-    <t>7.25m</t>
-  </si>
-  <si>
-    <t>11.12s</t>
-  </si>
-  <si>
-    <t>7.42m</t>
-  </si>
-  <si>
-    <t>14.12m</t>
-  </si>
-  <si>
-    <t>4.90m</t>
-  </si>
-  <si>
-    <t>49.32s</t>
-  </si>
-  <si>
     <t>CUB</t>
   </si>
   <si>
-    <t>4.70m</t>
-  </si>
-  <si>
-    <t>48.58s</t>
-  </si>
-  <si>
-    <t>10.95s</t>
-  </si>
-  <si>
-    <t>7.26m</t>
-  </si>
-  <si>
-    <t>5.20m</t>
-  </si>
-  <si>
-    <t>11.11s</t>
-  </si>
-  <si>
-    <t>7.35m</t>
-  </si>
-  <si>
-    <t>4.30m</t>
-  </si>
-  <si>
-    <t>11.14s</t>
-  </si>
-  <si>
-    <t>6.86m</t>
-  </si>
-  <si>
-    <t>5.10m</t>
-  </si>
-  <si>
     <t>BLR</t>
   </si>
   <si>
-    <t>6.92m</t>
-  </si>
-  <si>
-    <t>57.73m</t>
-  </si>
-  <si>
-    <t>10.92s</t>
-  </si>
-  <si>
-    <t>14.26m</t>
-  </si>
-  <si>
-    <t>56.69m</t>
-  </si>
-  <si>
-    <t>11.13s</t>
-  </si>
-  <si>
     <t>JPN</t>
   </si>
   <si>
-    <t>11.05s</t>
-  </si>
-  <si>
-    <t>13.23m</t>
-  </si>
-  <si>
-    <t>4.40m</t>
-  </si>
-  <si>
-    <t>10.90s</t>
-  </si>
-  <si>
-    <t>4.50m</t>
-  </si>
-  <si>
     <t>Dmitriy Karpov</t>
   </si>
   <si>
@@ -249,643 +153,28 @@
     <t>Trey Hardee</t>
   </si>
   <si>
-    <t>10.45s</t>
-  </si>
-  <si>
-    <t>7.83m</t>
-  </si>
-  <si>
-    <t>15.33m</t>
-  </si>
-  <si>
-    <t>1.99m</t>
-  </si>
-  <si>
-    <t>48.13s</t>
-  </si>
-  <si>
-    <t>13.86m</t>
-  </si>
-  <si>
-    <t>48.08m</t>
-  </si>
-  <si>
-    <t>68.00m</t>
-  </si>
-  <si>
-    <t>7.24m</t>
-  </si>
-  <si>
-    <t>15.20m</t>
-  </si>
-  <si>
-    <t>2.11m</t>
-  </si>
-  <si>
-    <t>48.00s</t>
-  </si>
-  <si>
-    <t>14.45m</t>
-  </si>
-  <si>
-    <t>44.71m</t>
-  </si>
-  <si>
-    <t>75.19m</t>
-  </si>
-  <si>
-    <t>7.49m</t>
-  </si>
-  <si>
-    <t>16.65m</t>
-  </si>
-  <si>
-    <t>2.08m</t>
-  </si>
-  <si>
-    <t>50.27s</t>
-  </si>
-  <si>
-    <t>14.19m</t>
-  </si>
-  <si>
-    <t>48.46m</t>
-  </si>
-  <si>
-    <t>63.95m</t>
-  </si>
-  <si>
     <t>UKR</t>
   </si>
   <si>
-    <t>10.63s</t>
-  </si>
-  <si>
-    <t>7.80m</t>
-  </si>
-  <si>
-    <t>15.72m</t>
-  </si>
-  <si>
-    <t>2.05m</t>
-  </si>
-  <si>
-    <t>47.85s</t>
-  </si>
-  <si>
-    <t>14.44m</t>
-  </si>
-  <si>
-    <t>46.70m</t>
-  </si>
-  <si>
-    <t>49.00m</t>
-  </si>
-  <si>
-    <t>10.85s</t>
-  </si>
-  <si>
-    <t>6.87m</t>
-  </si>
-  <si>
-    <t>16.17m</t>
-  </si>
-  <si>
-    <t>2.02m</t>
-  </si>
-  <si>
-    <t>14.97m</t>
-  </si>
-  <si>
-    <t>53.03m</t>
-  </si>
-  <si>
-    <t>64.55m</t>
-  </si>
-  <si>
-    <t>7.09m</t>
-  </si>
-  <si>
-    <t>15.77m</t>
-  </si>
-  <si>
-    <t>48.72s</t>
-  </si>
-  <si>
-    <t>14.24m</t>
-  </si>
-  <si>
-    <t>48.06m</t>
-  </si>
-  <si>
-    <t>69.72m</t>
-  </si>
-  <si>
     <t>SWE</t>
   </si>
   <si>
-    <t>10.96s</t>
-  </si>
-  <si>
-    <t>14.99m</t>
-  </si>
-  <si>
-    <t>48.73s</t>
-  </si>
-  <si>
-    <t>14.75m</t>
-  </si>
-  <si>
-    <t>42.28m</t>
-  </si>
-  <si>
-    <t>75.02m</t>
-  </si>
-  <si>
-    <t>10.60s</t>
-  </si>
-  <si>
-    <t>7.05m</t>
-  </si>
-  <si>
-    <t>15.15m</t>
-  </si>
-  <si>
-    <t>48.34s</t>
-  </si>
-  <si>
-    <t>14.08m</t>
-  </si>
-  <si>
-    <t>44.40m</t>
-  </si>
-  <si>
-    <t>69.37m</t>
-  </si>
-  <si>
-    <t>10.66s</t>
-  </si>
-  <si>
-    <t>7.72m</t>
-  </si>
-  <si>
-    <t>14.54m</t>
-  </si>
-  <si>
-    <t>46.15s</t>
-  </si>
-  <si>
-    <t>14.56m</t>
-  </si>
-  <si>
-    <t>43.52m</t>
-  </si>
-  <si>
-    <t>4.60m</t>
-  </si>
-  <si>
-    <t>60.09m</t>
-  </si>
-  <si>
-    <t>11.18s</t>
-  </si>
-  <si>
-    <t>7.62m</t>
-  </si>
-  <si>
-    <t>13.96m</t>
-  </si>
-  <si>
-    <t>48.77s</t>
-  </si>
-  <si>
-    <t>14.13m</t>
-  </si>
-  <si>
-    <t>42.24m</t>
-  </si>
-  <si>
-    <t>60.71m</t>
-  </si>
-  <si>
-    <t>11.16s</t>
-  </si>
-  <si>
-    <t>14.98m</t>
-  </si>
-  <si>
-    <t>50.42s</t>
-  </si>
-  <si>
-    <t>46.30m</t>
-  </si>
-  <si>
-    <t>65.61m</t>
-  </si>
-  <si>
-    <t>7.04m</t>
-  </si>
-  <si>
-    <t>14.78m</t>
-  </si>
-  <si>
-    <t>49.66s</t>
-  </si>
-  <si>
-    <t>14.27m</t>
-  </si>
-  <si>
-    <t>45.62m</t>
-  </si>
-  <si>
-    <t>61.24m</t>
-  </si>
-  <si>
     <t>ALG</t>
   </si>
   <si>
-    <t>10.68s</t>
-  </si>
-  <si>
-    <t>12.30m</t>
-  </si>
-  <si>
-    <t>14.57m</t>
-  </si>
-  <si>
-    <t>37.83m</t>
-  </si>
-  <si>
-    <t>62.53m</t>
-  </si>
-  <si>
     <t>RSA</t>
   </si>
   <si>
-    <t>10.89s</t>
-  </si>
-  <si>
-    <t>7.32m</t>
-  </si>
-  <si>
-    <t>13.16m</t>
-  </si>
-  <si>
-    <t>48.63s</t>
-  </si>
-  <si>
-    <t>42.40m</t>
-  </si>
-  <si>
-    <t>65.46m</t>
-  </si>
-  <si>
-    <t>10.82s</t>
-  </si>
-  <si>
-    <t>7.38m</t>
-  </si>
-  <si>
-    <t>14.55m</t>
-  </si>
-  <si>
-    <t>49.00s</t>
-  </si>
-  <si>
-    <t>14.22m</t>
-  </si>
-  <si>
-    <t>42.75m</t>
-  </si>
-  <si>
-    <t>11.01s</t>
-  </si>
-  <si>
-    <t>14.93m</t>
-  </si>
-  <si>
-    <t>48.20s</t>
-  </si>
-  <si>
-    <t>14.59m</t>
-  </si>
-  <si>
-    <t>41.21m</t>
-  </si>
-  <si>
-    <t>57.40m</t>
-  </si>
-  <si>
-    <t>11.22s</t>
-  </si>
-  <si>
-    <t>14.95m</t>
-  </si>
-  <si>
-    <t>1.93m</t>
-  </si>
-  <si>
-    <t>49.44s</t>
-  </si>
-  <si>
-    <t>14.83m</t>
-  </si>
-  <si>
-    <t>46.24m</t>
-  </si>
-  <si>
-    <t>59.93m</t>
-  </si>
-  <si>
-    <t>10.53s</t>
-  </si>
-  <si>
-    <t>7.85m</t>
-  </si>
-  <si>
-    <t>12.26m</t>
-  </si>
-  <si>
-    <t>47.75s</t>
-  </si>
-  <si>
-    <t>14.28m</t>
-  </si>
-  <si>
-    <t>37.15m</t>
-  </si>
-  <si>
-    <t>50.87m</t>
-  </si>
-  <si>
     <t>NED</t>
   </si>
   <si>
-    <t>7.41m</t>
-  </si>
-  <si>
-    <t>12.66m</t>
-  </si>
-  <si>
-    <t>50.26s</t>
-  </si>
-  <si>
-    <t>14.91m</t>
-  </si>
-  <si>
-    <t>44.94m</t>
-  </si>
-  <si>
-    <t>70.14m</t>
-  </si>
-  <si>
-    <t>7.21m</t>
-  </si>
-  <si>
-    <t>13.78m</t>
-  </si>
-  <si>
-    <t>49.99s</t>
-  </si>
-  <si>
-    <t>14.51m</t>
-  </si>
-  <si>
-    <t>42.39m</t>
-  </si>
-  <si>
-    <t>64.27m</t>
-  </si>
-  <si>
-    <t>11.02s</t>
-  </si>
-  <si>
-    <t>15.27m</t>
-  </si>
-  <si>
-    <t>49.45s</t>
-  </si>
-  <si>
-    <t>14.46m</t>
-  </si>
-  <si>
-    <t>48.93m</t>
-  </si>
-  <si>
-    <t>51.38m</t>
-  </si>
-  <si>
-    <t>13.62m</t>
-  </si>
-  <si>
-    <t>51.35s</t>
-  </si>
-  <si>
-    <t>14.90m</t>
-  </si>
-  <si>
-    <t>42.25m</t>
-  </si>
-  <si>
-    <t>57.65m</t>
-  </si>
-  <si>
     <t>NZL</t>
   </si>
   <si>
-    <t>14.35m</t>
-  </si>
-  <si>
-    <t>50.10s</t>
-  </si>
-  <si>
-    <t>14.82m</t>
-  </si>
-  <si>
-    <t>43.60m</t>
-  </si>
-  <si>
-    <t>51.52m</t>
-  </si>
-  <si>
-    <t>6.73m</t>
-  </si>
-  <si>
-    <t>13.97m</t>
-  </si>
-  <si>
-    <t>1.96m</t>
-  </si>
-  <si>
-    <t>49.07s</t>
-  </si>
-  <si>
-    <t>14.40m</t>
-  </si>
-  <si>
-    <t>43.23m</t>
-  </si>
-  <si>
-    <t>57.37m</t>
-  </si>
-  <si>
-    <t>7.29m</t>
-  </si>
-  <si>
-    <t>13.43m</t>
-  </si>
-  <si>
-    <t>47.68s</t>
-  </si>
-  <si>
-    <t>15.14m</t>
-  </si>
-  <si>
-    <t>34.33m</t>
-  </si>
-  <si>
-    <t>1.87m</t>
-  </si>
-  <si>
-    <t>49.28s</t>
-  </si>
-  <si>
-    <t>39.72m</t>
-  </si>
-  <si>
-    <t>63.73m</t>
-  </si>
-  <si>
-    <t>11.06s</t>
-  </si>
-  <si>
-    <t>7.27m</t>
-  </si>
-  <si>
-    <t>49.17s</t>
-  </si>
-  <si>
-    <t>39.62m</t>
-  </si>
-  <si>
-    <t>54.26m</t>
-  </si>
-  <si>
-    <t>14.69m</t>
-  </si>
-  <si>
-    <t>49.50s</t>
-  </si>
-  <si>
-    <t>14.87m</t>
-  </si>
-  <si>
-    <t>42.71m</t>
-  </si>
-  <si>
-    <t>54.73m</t>
-  </si>
-  <si>
-    <t>11.57s</t>
-  </si>
-  <si>
-    <t>11.97m</t>
-  </si>
-  <si>
-    <t>49.60s</t>
-  </si>
-  <si>
-    <t>41.25m</t>
-  </si>
-  <si>
-    <t>59.67m</t>
-  </si>
-  <si>
     <t>SUI</t>
   </si>
   <si>
-    <t>12.80m</t>
-  </si>
-  <si>
-    <t>49.67s</t>
-  </si>
-  <si>
-    <t>42.48m</t>
-  </si>
-  <si>
-    <t>54.91m</t>
-  </si>
-  <si>
-    <t>11.15s</t>
-  </si>
-  <si>
-    <t>13.92m</t>
-  </si>
-  <si>
-    <t>1.84m</t>
-  </si>
-  <si>
-    <t>49.79s</t>
-  </si>
-  <si>
-    <t>14.65m</t>
-  </si>
-  <si>
-    <t>43.75m</t>
-  </si>
-  <si>
-    <t>59.56m</t>
-  </si>
-  <si>
-    <t>11.32s</t>
-  </si>
-  <si>
-    <t>52.41s</t>
-  </si>
-  <si>
-    <t>14.80m</t>
-  </si>
-  <si>
-    <t>42.81m</t>
-  </si>
-  <si>
-    <t>50.10m</t>
-  </si>
-  <si>
-    <t>6.94m</t>
-  </si>
-  <si>
-    <t>14.42m</t>
-  </si>
-  <si>
-    <t>1.90m</t>
-  </si>
-  <si>
-    <t>51.28s</t>
-  </si>
-  <si>
-    <t>41.83m</t>
-  </si>
-  <si>
-    <t>56.21m</t>
-  </si>
-  <si>
     <t>LAT</t>
-  </si>
-  <si>
-    <t>11.27s</t>
-  </si>
-  <si>
-    <t>14.07m</t>
-  </si>
-  <si>
-    <t>49.88s</t>
-  </si>
-  <si>
-    <t>42.02m</t>
-  </si>
-  <si>
-    <t>57.50m</t>
   </si>
   <si>
     <t>Leonel Suárez</t>
@@ -1275,7 +564,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1573,26 +862,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CAD70C-E319-4B1A-A34F-73775A44C87E}">
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="105" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="16" width="9.7109375" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" customWidth="1"/>
-    <col min="19" max="20" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="16" width="9.6640625" customWidth="1"/>
+    <col min="17" max="17" width="8.5" customWidth="1"/>
+    <col min="18" max="18" width="12.5" customWidth="1"/>
+    <col min="19" max="20" width="9.6640625" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" customWidth="1"/>
+    <col min="23" max="23" width="11.83203125" customWidth="1"/>
+    <col min="24" max="24" width="12.5" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1666,12 +955,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>24</v>
@@ -1679,56 +968,56 @@
       <c r="D2" s="11">
         <v>8790</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>72</v>
+      <c r="E2" s="10">
+        <v>10.45</v>
       </c>
       <c r="F2" s="10">
         <v>987</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>73</v>
+      <c r="G2" s="10">
+        <v>7.83</v>
       </c>
       <c r="H2" s="10">
         <v>1017</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>74</v>
+      <c r="I2" s="10">
+        <v>15.33</v>
       </c>
       <c r="J2" s="10">
         <v>810</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>75</v>
+      <c r="K2" s="10">
+        <v>1.99</v>
       </c>
       <c r="L2" s="10">
         <v>794</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>76</v>
+      <c r="M2" s="10">
+        <v>48.13</v>
       </c>
       <c r="N2" s="10">
         <v>903</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>77</v>
+      <c r="O2" s="10">
+        <v>13.86</v>
       </c>
       <c r="P2" s="10">
         <v>993</v>
       </c>
-      <c r="Q2" s="10" t="s">
-        <v>78</v>
+      <c r="Q2" s="10">
+        <v>48.08</v>
       </c>
       <c r="R2" s="10">
         <v>830</v>
       </c>
-      <c r="S2" s="10" t="s">
-        <v>49</v>
+      <c r="S2" s="10">
+        <v>5.2</v>
       </c>
       <c r="T2" s="10">
         <v>972</v>
       </c>
-      <c r="U2" s="10" t="s">
-        <v>79</v>
+      <c r="U2" s="10">
+        <v>68</v>
       </c>
       <c r="V2" s="10">
         <v>859</v>
@@ -1740,69 +1029,69 @@
         <v>625</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>285</v>
+        <v>48</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D3" s="11">
         <v>8640</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>62</v>
+      <c r="E3" s="10">
+        <v>11.13</v>
       </c>
       <c r="F3" s="10">
         <v>832</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>80</v>
+      <c r="G3" s="10">
+        <v>7.24</v>
       </c>
       <c r="H3" s="10">
         <v>871</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>81</v>
+      <c r="I3" s="10">
+        <v>15.2</v>
       </c>
       <c r="J3" s="10">
         <v>802</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>82</v>
+      <c r="K3" s="10">
+        <v>2.11</v>
       </c>
       <c r="L3" s="10">
         <v>906</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>83</v>
+      <c r="M3" s="10">
+        <v>48</v>
       </c>
       <c r="N3" s="10">
         <v>909</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>84</v>
+      <c r="O3" s="10">
+        <v>14.45</v>
       </c>
       <c r="P3" s="10">
         <v>917</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>85</v>
+      <c r="Q3" s="10">
+        <v>44.71</v>
       </c>
       <c r="R3" s="10">
         <v>761</v>
       </c>
-      <c r="S3" s="10" t="s">
-        <v>37</v>
+      <c r="S3" s="10">
+        <v>5</v>
       </c>
       <c r="T3" s="10">
         <v>910</v>
       </c>
-      <c r="U3" s="10" t="s">
-        <v>86</v>
+      <c r="U3" s="10">
+        <v>75.19</v>
       </c>
       <c r="V3" s="10">
         <v>969</v>
@@ -1814,12 +1103,12 @@
         <v>763</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>286</v>
+        <v>49</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>28</v>
@@ -1827,56 +1116,56 @@
       <c r="D4" s="11">
         <v>8528</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>47</v>
+      <c r="E4" s="10">
+        <v>10.95</v>
       </c>
       <c r="F4" s="10">
         <v>872</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>87</v>
+      <c r="G4" s="10">
+        <v>7.49</v>
       </c>
       <c r="H4" s="10">
         <v>932</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>88</v>
+      <c r="I4" s="10">
+        <v>16.649999999999999</v>
       </c>
       <c r="J4" s="10">
         <v>891</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>89</v>
+      <c r="K4" s="10">
+        <v>2.08</v>
       </c>
       <c r="L4" s="10">
         <v>878</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>90</v>
+      <c r="M4" s="10">
+        <v>50.27</v>
       </c>
       <c r="N4" s="10">
         <v>802</v>
       </c>
-      <c r="O4" s="10" t="s">
-        <v>91</v>
+      <c r="O4" s="10">
+        <v>14.19</v>
       </c>
       <c r="P4" s="10">
         <v>950</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>92</v>
+      <c r="Q4" s="10">
+        <v>48.46</v>
       </c>
       <c r="R4" s="10">
         <v>838</v>
       </c>
-      <c r="S4" s="10" t="s">
-        <v>55</v>
+      <c r="S4" s="10">
+        <v>5.0999999999999996</v>
       </c>
       <c r="T4" s="10">
         <v>941</v>
       </c>
-      <c r="U4" s="10" t="s">
-        <v>93</v>
+      <c r="U4" s="10">
+        <v>63.95</v>
       </c>
       <c r="V4" s="10">
         <v>797</v>
@@ -1888,69 +1177,69 @@
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>287</v>
+        <v>50</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D5" s="11">
         <v>8479</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>95</v>
+      <c r="E5" s="10">
+        <v>10.63</v>
       </c>
       <c r="F5" s="10">
         <v>945</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>96</v>
+      <c r="G5" s="10">
+        <v>7.8</v>
       </c>
       <c r="H5" s="10">
         <v>1010</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>97</v>
+      <c r="I5" s="10">
+        <v>15.72</v>
       </c>
       <c r="J5" s="10">
         <v>834</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>98</v>
+      <c r="K5" s="10">
+        <v>2.0499999999999998</v>
       </c>
       <c r="L5" s="10">
         <v>850</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>99</v>
+      <c r="M5" s="10">
+        <v>47.85</v>
       </c>
       <c r="N5" s="10">
         <v>916</v>
       </c>
-      <c r="O5" s="10" t="s">
-        <v>100</v>
+      <c r="O5" s="10">
+        <v>14.44</v>
       </c>
       <c r="P5" s="10">
         <v>918</v>
       </c>
-      <c r="Q5" s="10" t="s">
-        <v>101</v>
+      <c r="Q5" s="10">
+        <v>46.7</v>
       </c>
       <c r="R5" s="10">
         <v>802</v>
       </c>
-      <c r="S5" s="10" t="s">
-        <v>34</v>
+      <c r="S5" s="10">
+        <v>4.8</v>
       </c>
       <c r="T5" s="10">
         <v>849</v>
       </c>
-      <c r="U5" s="10" t="s">
-        <v>102</v>
+      <c r="U5" s="10">
+        <v>49</v>
       </c>
       <c r="V5" s="10">
         <v>574</v>
@@ -1962,12 +1251,12 @@
         <v>781</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>288</v>
+        <v>51</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>28</v>
@@ -1975,56 +1264,56 @@
       <c r="D6" s="11">
         <v>8454</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>103</v>
+      <c r="E6" s="10">
+        <v>10.85</v>
       </c>
       <c r="F6" s="10">
         <v>894</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>104</v>
+      <c r="G6" s="10">
+        <v>6.87</v>
       </c>
       <c r="H6" s="10">
         <v>783</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>105</v>
+      <c r="I6" s="10">
+        <v>16.170000000000002</v>
       </c>
       <c r="J6" s="10">
         <v>862</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>106</v>
+      <c r="K6" s="10">
+        <v>2.02</v>
       </c>
       <c r="L6" s="10">
         <v>822</v>
       </c>
-      <c r="M6" s="10" t="s">
-        <v>43</v>
+      <c r="M6" s="10">
+        <v>49.32</v>
       </c>
       <c r="N6" s="10">
         <v>846</v>
       </c>
-      <c r="O6" s="10" t="s">
-        <v>107</v>
+      <c r="O6" s="10">
+        <v>14.97</v>
       </c>
       <c r="P6" s="10">
         <v>853</v>
       </c>
-      <c r="Q6" s="10" t="s">
-        <v>108</v>
+      <c r="Q6" s="10">
+        <v>53.03</v>
       </c>
       <c r="R6" s="10">
         <v>934</v>
       </c>
-      <c r="S6" s="10" t="s">
-        <v>55</v>
+      <c r="S6" s="10">
+        <v>5.0999999999999996</v>
       </c>
       <c r="T6" s="10">
         <v>941</v>
       </c>
-      <c r="U6" s="10" t="s">
-        <v>109</v>
+      <c r="U6" s="10">
+        <v>64.55</v>
       </c>
       <c r="V6" s="10">
         <v>807</v>
@@ -2036,12 +1325,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>289</v>
+        <v>52</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>27</v>
@@ -2049,56 +1338,56 @@
       <c r="D7" s="11">
         <v>8439</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>59</v>
+      <c r="E7" s="10">
+        <v>10.92</v>
       </c>
       <c r="F7" s="10">
         <v>878</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>110</v>
+      <c r="G7" s="10">
+        <v>7.09</v>
       </c>
       <c r="H7" s="10">
         <v>835</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>111</v>
+      <c r="I7" s="10">
+        <v>15.77</v>
       </c>
       <c r="J7" s="10">
         <v>837</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>106</v>
+      <c r="K7" s="10">
+        <v>2.02</v>
       </c>
       <c r="L7" s="10">
         <v>822</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>112</v>
+      <c r="M7" s="10">
+        <v>48.72</v>
       </c>
       <c r="N7" s="10">
         <v>875</v>
       </c>
-      <c r="O7" s="10" t="s">
-        <v>113</v>
+      <c r="O7" s="10">
+        <v>14.24</v>
       </c>
       <c r="P7" s="10">
         <v>944</v>
       </c>
-      <c r="Q7" s="10" t="s">
-        <v>114</v>
+      <c r="Q7" s="10">
+        <v>48.06</v>
       </c>
       <c r="R7" s="10">
         <v>830</v>
       </c>
-      <c r="S7" s="10" t="s">
-        <v>34</v>
+      <c r="S7" s="10">
+        <v>4.8</v>
       </c>
       <c r="T7" s="10">
         <v>849</v>
       </c>
-      <c r="U7" s="10" t="s">
-        <v>115</v>
+      <c r="U7" s="10">
+        <v>69.72</v>
       </c>
       <c r="V7" s="10">
         <v>885</v>
@@ -2110,69 +1399,69 @@
         <v>684</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>290</v>
+        <v>53</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="D8" s="11">
         <v>8406</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>117</v>
+      <c r="E8" s="10">
+        <v>10.96</v>
       </c>
       <c r="F8" s="10">
         <v>870</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>38</v>
+      <c r="G8" s="10">
+        <v>7.25</v>
       </c>
       <c r="H8" s="10">
         <v>874</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>118</v>
+      <c r="I8" s="10">
+        <v>14.99</v>
       </c>
       <c r="J8" s="10">
         <v>789</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>98</v>
+      <c r="K8" s="10">
+        <v>2.0499999999999998</v>
       </c>
       <c r="L8" s="10">
         <v>850</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>119</v>
+      <c r="M8" s="10">
+        <v>48.73</v>
       </c>
       <c r="N8" s="10">
         <v>874</v>
       </c>
-      <c r="O8" s="10" t="s">
-        <v>120</v>
+      <c r="O8" s="10">
+        <v>14.75</v>
       </c>
       <c r="P8" s="10">
         <v>880</v>
       </c>
-      <c r="Q8" s="10" t="s">
-        <v>121</v>
+      <c r="Q8" s="10">
+        <v>42.28</v>
       </c>
       <c r="R8" s="10">
         <v>711</v>
       </c>
-      <c r="S8" s="10" t="s">
-        <v>68</v>
+      <c r="S8" s="10">
+        <v>4.5</v>
       </c>
       <c r="T8" s="10">
         <v>760</v>
       </c>
-      <c r="U8" s="10" t="s">
-        <v>122</v>
+      <c r="U8" s="10">
+        <v>75.02</v>
       </c>
       <c r="V8" s="10">
         <v>966</v>
@@ -2184,69 +1473,69 @@
         <v>832</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>291</v>
+        <v>54</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D9" s="11">
         <v>8387</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>123</v>
+      <c r="E9" s="10">
+        <v>10.6</v>
       </c>
       <c r="F9" s="10">
         <v>952</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>124</v>
+      <c r="G9" s="10">
+        <v>7.05</v>
       </c>
       <c r="H9" s="10">
         <v>826</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>125</v>
+      <c r="I9" s="10">
+        <v>15.15</v>
       </c>
       <c r="J9" s="10">
         <v>799</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>89</v>
+      <c r="K9" s="10">
+        <v>2.08</v>
       </c>
       <c r="L9" s="10">
         <v>878</v>
       </c>
-      <c r="M9" s="10" t="s">
-        <v>126</v>
+      <c r="M9" s="10">
+        <v>48.34</v>
       </c>
       <c r="N9" s="10">
         <v>893</v>
       </c>
-      <c r="O9" s="10" t="s">
-        <v>127</v>
+      <c r="O9" s="10">
+        <v>14.08</v>
       </c>
       <c r="P9" s="10">
         <v>964</v>
       </c>
-      <c r="Q9" s="10" t="s">
-        <v>128</v>
+      <c r="Q9" s="10">
+        <v>44.4</v>
       </c>
       <c r="R9" s="10">
         <v>754</v>
       </c>
-      <c r="S9" s="10" t="s">
-        <v>45</v>
+      <c r="S9" s="10">
+        <v>4.7</v>
       </c>
       <c r="T9" s="10">
         <v>819</v>
       </c>
-      <c r="U9" s="10" t="s">
-        <v>129</v>
+      <c r="U9" s="10">
+        <v>69.37</v>
       </c>
       <c r="V9" s="10">
         <v>880</v>
@@ -2258,69 +1547,69 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>292</v>
+        <v>55</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D10" s="11">
         <v>8357</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>130</v>
+      <c r="E10" s="10">
+        <v>10.66</v>
       </c>
       <c r="F10" s="10">
         <v>938</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>131</v>
+      <c r="G10" s="10">
+        <v>7.72</v>
       </c>
       <c r="H10" s="10">
         <v>990</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>132</v>
+      <c r="I10" s="10">
+        <v>14.54</v>
       </c>
       <c r="J10" s="10">
         <v>761</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>106</v>
+      <c r="K10" s="10">
+        <v>2.02</v>
       </c>
       <c r="L10" s="10">
         <v>822</v>
       </c>
-      <c r="M10" s="10" t="s">
-        <v>133</v>
+      <c r="M10" s="10">
+        <v>46.15</v>
       </c>
       <c r="N10" s="10">
         <v>1001</v>
       </c>
-      <c r="O10" s="10" t="s">
-        <v>134</v>
+      <c r="O10" s="10">
+        <v>14.56</v>
       </c>
       <c r="P10" s="10">
         <v>903</v>
       </c>
-      <c r="Q10" s="10" t="s">
-        <v>135</v>
+      <c r="Q10" s="10">
+        <v>43.52</v>
       </c>
       <c r="R10" s="10">
         <v>736</v>
       </c>
-      <c r="S10" s="10" t="s">
-        <v>136</v>
+      <c r="S10" s="10">
+        <v>4.5999999999999996</v>
       </c>
       <c r="T10" s="10">
         <v>790</v>
       </c>
-      <c r="U10" s="10" t="s">
-        <v>137</v>
+      <c r="U10" s="10">
+        <v>60.09</v>
       </c>
       <c r="V10" s="10">
         <v>739</v>
@@ -2332,69 +1621,69 @@
         <v>677</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>293</v>
+        <v>56</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D11" s="11">
         <v>8281</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>138</v>
+      <c r="E11" s="10">
+        <v>11.18</v>
       </c>
       <c r="F11" s="10">
         <v>821</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>139</v>
+      <c r="G11" s="10">
+        <v>7.62</v>
       </c>
       <c r="H11" s="10">
         <v>965</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>140</v>
+      <c r="I11" s="10">
+        <v>13.96</v>
       </c>
       <c r="J11" s="10">
         <v>726</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>82</v>
+      <c r="K11" s="10">
+        <v>2.11</v>
       </c>
       <c r="L11" s="10">
         <v>906</v>
       </c>
-      <c r="M11" s="10" t="s">
-        <v>141</v>
+      <c r="M11" s="10">
+        <v>48.77</v>
       </c>
       <c r="N11" s="10">
         <v>872</v>
       </c>
-      <c r="O11" s="10" t="s">
-        <v>142</v>
+      <c r="O11" s="10">
+        <v>14.13</v>
       </c>
       <c r="P11" s="10">
         <v>958</v>
       </c>
-      <c r="Q11" s="10" t="s">
-        <v>143</v>
+      <c r="Q11" s="10">
+        <v>42.24</v>
       </c>
       <c r="R11" s="10">
         <v>710</v>
       </c>
-      <c r="S11" s="10" t="s">
-        <v>42</v>
+      <c r="S11" s="10">
+        <v>4.9000000000000004</v>
       </c>
       <c r="T11" s="10">
         <v>880</v>
       </c>
-      <c r="U11" s="10" t="s">
-        <v>144</v>
+      <c r="U11" s="10">
+        <v>60.71</v>
       </c>
       <c r="V11" s="10">
         <v>749</v>
@@ -2406,12 +1695,12 @@
         <v>694</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>294</v>
+        <v>57</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>26</v>
@@ -2419,56 +1708,56 @@
       <c r="D12" s="11">
         <v>8266</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>145</v>
+      <c r="E12" s="10">
+        <v>11.16</v>
       </c>
       <c r="F12" s="10">
         <v>825</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>96</v>
+      <c r="G12" s="10">
+        <v>7.8</v>
       </c>
       <c r="H12" s="10">
         <v>1010</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>146</v>
+      <c r="I12" s="10">
+        <v>14.98</v>
       </c>
       <c r="J12" s="10">
         <v>788</v>
       </c>
-      <c r="K12" s="10" t="s">
-        <v>82</v>
+      <c r="K12" s="10">
+        <v>2.11</v>
       </c>
       <c r="L12" s="10">
         <v>906</v>
       </c>
-      <c r="M12" s="10" t="s">
-        <v>147</v>
+      <c r="M12" s="10">
+        <v>50.42</v>
       </c>
       <c r="N12" s="10">
         <v>795</v>
       </c>
-      <c r="O12" s="10" t="s">
-        <v>100</v>
+      <c r="O12" s="10">
+        <v>14.44</v>
       </c>
       <c r="P12" s="10">
         <v>918</v>
       </c>
-      <c r="Q12" s="10" t="s">
-        <v>148</v>
+      <c r="Q12" s="10">
+        <v>46.3</v>
       </c>
       <c r="R12" s="10">
         <v>794</v>
       </c>
-      <c r="S12" s="10" t="s">
-        <v>136</v>
+      <c r="S12" s="10">
+        <v>4.5999999999999996</v>
       </c>
       <c r="T12" s="10">
         <v>790</v>
       </c>
-      <c r="U12" s="10" t="s">
-        <v>149</v>
+      <c r="U12" s="10">
+        <v>65.61</v>
       </c>
       <c r="V12" s="10">
         <v>823</v>
@@ -2480,7 +1769,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2493,56 +1782,56 @@
       <c r="D13" s="11">
         <v>8204</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>53</v>
+      <c r="E13" s="10">
+        <v>11.14</v>
       </c>
       <c r="F13" s="10">
         <v>830</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>150</v>
+      <c r="G13" s="10">
+        <v>7.04</v>
       </c>
       <c r="H13" s="10">
         <v>823</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>151</v>
+      <c r="I13" s="10">
+        <v>14.78</v>
       </c>
       <c r="J13" s="10">
         <v>776</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>75</v>
+      <c r="K13" s="10">
+        <v>1.99</v>
       </c>
       <c r="L13" s="10">
         <v>794</v>
       </c>
-      <c r="M13" s="10" t="s">
-        <v>152</v>
+      <c r="M13" s="10">
+        <v>49.66</v>
       </c>
       <c r="N13" s="10">
         <v>830</v>
       </c>
-      <c r="O13" s="10" t="s">
-        <v>153</v>
+      <c r="O13" s="10">
+        <v>14.27</v>
       </c>
       <c r="P13" s="10">
         <v>940</v>
       </c>
-      <c r="Q13" s="10" t="s">
-        <v>154</v>
+      <c r="Q13" s="10">
+        <v>45.62</v>
       </c>
       <c r="R13" s="10">
         <v>780</v>
       </c>
-      <c r="S13" s="10" t="s">
-        <v>37</v>
+      <c r="S13" s="10">
+        <v>5</v>
       </c>
       <c r="T13" s="10">
         <v>910</v>
       </c>
-      <c r="U13" s="10" t="s">
-        <v>155</v>
+      <c r="U13" s="10">
+        <v>61.24</v>
       </c>
       <c r="V13" s="10">
         <v>757</v>
@@ -2554,69 +1843,69 @@
         <v>764</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>295</v>
+        <v>58</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="D14" s="11">
         <v>8171</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>157</v>
+      <c r="E14" s="10">
+        <v>10.68</v>
       </c>
       <c r="F14" s="10">
         <v>933</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>51</v>
+      <c r="G14" s="10">
+        <v>7.35</v>
       </c>
       <c r="H14" s="10">
         <v>898</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>158</v>
+      <c r="I14" s="10">
+        <v>12.3</v>
       </c>
       <c r="J14" s="10">
         <v>625</v>
       </c>
-      <c r="K14" s="10" t="s">
-        <v>98</v>
+      <c r="K14" s="10">
+        <v>2.0499999999999998</v>
       </c>
       <c r="L14" s="10">
         <v>850</v>
       </c>
-      <c r="M14" s="10" t="s">
-        <v>46</v>
+      <c r="M14" s="10">
+        <v>48.58</v>
       </c>
       <c r="N14" s="10">
         <v>881</v>
       </c>
-      <c r="O14" s="10" t="s">
-        <v>159</v>
+      <c r="O14" s="10">
+        <v>14.57</v>
       </c>
       <c r="P14" s="10">
         <v>902</v>
       </c>
-      <c r="Q14" s="10" t="s">
-        <v>160</v>
+      <c r="Q14" s="10">
+        <v>37.83</v>
       </c>
       <c r="R14" s="10">
         <v>621</v>
       </c>
-      <c r="S14" s="10" t="s">
-        <v>45</v>
+      <c r="S14" s="10">
+        <v>4.7</v>
       </c>
       <c r="T14" s="10">
         <v>819</v>
       </c>
-      <c r="U14" s="10" t="s">
-        <v>161</v>
+      <c r="U14" s="10">
+        <v>62.53</v>
       </c>
       <c r="V14" s="10">
         <v>776</v>
@@ -2628,69 +1917,69 @@
         <v>866</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>296</v>
+        <v>59</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="D15" s="11">
         <v>8146</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>163</v>
+      <c r="E15" s="10">
+        <v>10.89</v>
       </c>
       <c r="F15" s="10">
         <v>885</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>164</v>
+      <c r="G15" s="10">
+        <v>7.32</v>
       </c>
       <c r="H15" s="10">
         <v>891</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>165</v>
+      <c r="I15" s="10">
+        <v>13.16</v>
       </c>
       <c r="J15" s="10">
         <v>677</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>106</v>
+      <c r="K15" s="10">
+        <v>2.02</v>
       </c>
       <c r="L15" s="10">
         <v>822</v>
       </c>
-      <c r="M15" s="10" t="s">
-        <v>166</v>
+      <c r="M15" s="10">
+        <v>48.63</v>
       </c>
       <c r="N15" s="10">
         <v>879</v>
       </c>
-      <c r="O15" s="10" t="s">
-        <v>60</v>
+      <c r="O15" s="10">
+        <v>14.26</v>
       </c>
       <c r="P15" s="10">
         <v>941</v>
       </c>
-      <c r="Q15" s="10" t="s">
-        <v>167</v>
+      <c r="Q15" s="10">
+        <v>42.4</v>
       </c>
       <c r="R15" s="10">
         <v>713</v>
       </c>
-      <c r="S15" s="10" t="s">
-        <v>136</v>
+      <c r="S15" s="10">
+        <v>4.5999999999999996</v>
       </c>
       <c r="T15" s="10">
         <v>790</v>
       </c>
-      <c r="U15" s="10" t="s">
-        <v>168</v>
+      <c r="U15" s="10">
+        <v>65.459999999999994</v>
       </c>
       <c r="V15" s="10">
         <v>820</v>
@@ -2702,12 +1991,12 @@
         <v>728</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>30</v>
@@ -2715,56 +2004,56 @@
       <c r="D16" s="11">
         <v>8119</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>169</v>
+      <c r="E16" s="10">
+        <v>10.82</v>
       </c>
       <c r="F16" s="10">
         <v>901</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>170</v>
+      <c r="G16" s="10">
+        <v>7.38</v>
       </c>
       <c r="H16" s="10">
         <v>905</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>171</v>
+      <c r="I16" s="10">
+        <v>14.55</v>
       </c>
       <c r="J16" s="10">
         <v>762</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>75</v>
+      <c r="K16" s="10">
+        <v>1.99</v>
       </c>
       <c r="L16" s="10">
         <v>794</v>
       </c>
-      <c r="M16" s="10" t="s">
-        <v>172</v>
+      <c r="M16" s="10">
+        <v>49</v>
       </c>
       <c r="N16" s="10">
         <v>861</v>
       </c>
-      <c r="O16" s="10" t="s">
-        <v>173</v>
+      <c r="O16" s="10">
+        <v>14.22</v>
       </c>
       <c r="P16" s="10">
         <v>946</v>
       </c>
-      <c r="Q16" s="10" t="s">
-        <v>174</v>
+      <c r="Q16" s="10">
+        <v>42.75</v>
       </c>
       <c r="R16" s="10">
         <v>721</v>
       </c>
-      <c r="S16" s="10" t="s">
-        <v>34</v>
+      <c r="S16" s="10">
+        <v>4.8</v>
       </c>
       <c r="T16" s="10">
         <v>849</v>
       </c>
-      <c r="U16" s="10" t="s">
-        <v>58</v>
+      <c r="U16" s="10">
+        <v>57.73</v>
       </c>
       <c r="V16" s="10">
         <v>704</v>
@@ -2776,12 +2065,12 @@
         <v>676</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>297</v>
+        <v>60</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>27</v>
@@ -2789,56 +2078,56 @@
       <c r="D17" s="11">
         <v>8096</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>175</v>
+      <c r="E17" s="10">
+        <v>11.01</v>
       </c>
       <c r="F17" s="10">
         <v>858</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>51</v>
+      <c r="G17" s="10">
+        <v>7.35</v>
       </c>
       <c r="H17" s="10">
         <v>898</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>176</v>
+      <c r="I17" s="10">
+        <v>14.93</v>
       </c>
       <c r="J17" s="10">
         <v>785</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>75</v>
+      <c r="K17" s="10">
+        <v>1.99</v>
       </c>
       <c r="L17" s="10">
         <v>794</v>
       </c>
-      <c r="M17" s="10" t="s">
-        <v>177</v>
+      <c r="M17" s="10">
+        <v>48.2</v>
       </c>
       <c r="N17" s="10">
         <v>899</v>
       </c>
-      <c r="O17" s="10" t="s">
-        <v>178</v>
+      <c r="O17" s="10">
+        <v>14.59</v>
       </c>
       <c r="P17" s="10">
         <v>900</v>
       </c>
-      <c r="Q17" s="10" t="s">
-        <v>179</v>
+      <c r="Q17" s="10">
+        <v>41.21</v>
       </c>
       <c r="R17" s="10">
         <v>689</v>
       </c>
-      <c r="S17" s="10" t="s">
-        <v>34</v>
+      <c r="S17" s="10">
+        <v>4.8</v>
       </c>
       <c r="T17" s="10">
         <v>849</v>
       </c>
-      <c r="U17" s="10" t="s">
-        <v>180</v>
+      <c r="U17" s="10">
+        <v>57.4</v>
       </c>
       <c r="V17" s="10">
         <v>699</v>
@@ -2850,12 +2139,12 @@
         <v>725</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>298</v>
+        <v>61</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>28</v>
@@ -2863,56 +2152,56 @@
       <c r="D18" s="11">
         <v>8065</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>181</v>
+      <c r="E18" s="10">
+        <v>11.22</v>
       </c>
       <c r="F18" s="10">
         <v>812</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>170</v>
+      <c r="G18" s="10">
+        <v>7.38</v>
       </c>
       <c r="H18" s="10">
         <v>905</v>
       </c>
-      <c r="I18" s="10" t="s">
-        <v>182</v>
+      <c r="I18" s="10">
+        <v>14.95</v>
       </c>
       <c r="J18" s="10">
         <v>787</v>
       </c>
-      <c r="K18" s="10" t="s">
-        <v>183</v>
+      <c r="K18" s="10">
+        <v>1.93</v>
       </c>
       <c r="L18" s="10">
         <v>740</v>
       </c>
-      <c r="M18" s="10" t="s">
-        <v>184</v>
+      <c r="M18" s="10">
+        <v>49.44</v>
       </c>
       <c r="N18" s="10">
         <v>841</v>
       </c>
-      <c r="O18" s="10" t="s">
-        <v>185</v>
+      <c r="O18" s="10">
+        <v>14.83</v>
       </c>
       <c r="P18" s="10">
         <v>870</v>
       </c>
-      <c r="Q18" s="10" t="s">
-        <v>186</v>
+      <c r="Q18" s="10">
+        <v>46.24</v>
       </c>
       <c r="R18" s="10">
         <v>792</v>
       </c>
-      <c r="S18" s="10" t="s">
-        <v>37</v>
+      <c r="S18" s="10">
+        <v>5</v>
       </c>
       <c r="T18" s="10">
         <v>910</v>
       </c>
-      <c r="U18" s="10" t="s">
-        <v>187</v>
+      <c r="U18" s="10">
+        <v>59.93</v>
       </c>
       <c r="V18" s="10">
         <v>737</v>
@@ -2924,12 +2213,12 @@
         <v>671</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>299</v>
+        <v>62</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>24</v>
@@ -2937,56 +2226,56 @@
       <c r="D19" s="11">
         <v>8061</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>188</v>
+      <c r="E19" s="10">
+        <v>10.53</v>
       </c>
       <c r="F19" s="10">
         <v>968</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>189</v>
+      <c r="G19" s="10">
+        <v>7.85</v>
       </c>
       <c r="H19" s="10">
         <v>1022</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>190</v>
+      <c r="I19" s="10">
+        <v>12.26</v>
       </c>
       <c r="J19" s="10">
         <v>622</v>
       </c>
-      <c r="K19" s="10" t="s">
-        <v>106</v>
+      <c r="K19" s="10">
+        <v>2.02</v>
       </c>
       <c r="L19" s="10">
         <v>822</v>
       </c>
-      <c r="M19" s="10" t="s">
-        <v>191</v>
+      <c r="M19" s="10">
+        <v>47.75</v>
       </c>
       <c r="N19" s="10">
         <v>921</v>
       </c>
-      <c r="O19" s="10" t="s">
-        <v>192</v>
+      <c r="O19" s="10">
+        <v>14.28</v>
       </c>
       <c r="P19" s="10">
         <v>939</v>
       </c>
-      <c r="Q19" s="10" t="s">
-        <v>193</v>
+      <c r="Q19" s="10">
+        <v>37.15</v>
       </c>
       <c r="R19" s="10">
         <v>607</v>
       </c>
-      <c r="S19" s="10" t="s">
-        <v>37</v>
+      <c r="S19" s="10">
+        <v>5</v>
       </c>
       <c r="T19" s="10">
         <v>910</v>
       </c>
-      <c r="U19" s="10" t="s">
-        <v>194</v>
+      <c r="U19" s="10">
+        <v>50.87</v>
       </c>
       <c r="V19" s="10">
         <v>601</v>
@@ -2998,69 +2287,69 @@
         <v>649</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>300</v>
+        <v>63</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="D20" s="11">
         <v>8055</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>138</v>
+      <c r="E20" s="10">
+        <v>11.18</v>
       </c>
       <c r="F20" s="10">
         <v>821</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>196</v>
+      <c r="G20" s="10">
+        <v>7.41</v>
       </c>
       <c r="H20" s="10">
         <v>913</v>
       </c>
-      <c r="I20" s="10" t="s">
-        <v>197</v>
+      <c r="I20" s="10">
+        <v>12.66</v>
       </c>
       <c r="J20" s="10">
         <v>647</v>
       </c>
-      <c r="K20" s="10" t="s">
-        <v>75</v>
+      <c r="K20" s="10">
+        <v>1.99</v>
       </c>
       <c r="L20" s="10">
         <v>794</v>
       </c>
-      <c r="M20" s="10" t="s">
-        <v>198</v>
+      <c r="M20" s="10">
+        <v>50.26</v>
       </c>
       <c r="N20" s="10">
         <v>803</v>
       </c>
-      <c r="O20" s="10" t="s">
-        <v>199</v>
+      <c r="O20" s="10">
+        <v>14.91</v>
       </c>
       <c r="P20" s="10">
         <v>860</v>
       </c>
-      <c r="Q20" s="10" t="s">
-        <v>200</v>
+      <c r="Q20" s="10">
+        <v>44.94</v>
       </c>
       <c r="R20" s="10">
         <v>766</v>
       </c>
-      <c r="S20" s="10" t="s">
-        <v>34</v>
+      <c r="S20" s="10">
+        <v>4.8</v>
       </c>
       <c r="T20" s="10">
         <v>849</v>
       </c>
-      <c r="U20" s="10" t="s">
-        <v>201</v>
+      <c r="U20" s="10">
+        <v>70.14</v>
       </c>
       <c r="V20" s="10">
         <v>892</v>
@@ -3072,69 +2361,69 @@
         <v>710</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>301</v>
+        <v>64</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="D21" s="11">
         <v>8009</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>67</v>
+      <c r="E21" s="10">
+        <v>10.9</v>
       </c>
       <c r="F21" s="10">
         <v>883</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>202</v>
+      <c r="G21" s="10">
+        <v>7.21</v>
       </c>
       <c r="H21" s="10">
         <v>864</v>
       </c>
-      <c r="I21" s="10" t="s">
-        <v>203</v>
+      <c r="I21" s="10">
+        <v>13.78</v>
       </c>
       <c r="J21" s="10">
         <v>715</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>106</v>
+      <c r="K21" s="10">
+        <v>2.02</v>
       </c>
       <c r="L21" s="10">
         <v>822</v>
       </c>
-      <c r="M21" s="10" t="s">
-        <v>204</v>
+      <c r="M21" s="10">
+        <v>49.99</v>
       </c>
       <c r="N21" s="10">
         <v>815</v>
       </c>
-      <c r="O21" s="10" t="s">
-        <v>205</v>
+      <c r="O21" s="10">
+        <v>14.51</v>
       </c>
       <c r="P21" s="10">
         <v>910</v>
       </c>
-      <c r="Q21" s="10" t="s">
-        <v>206</v>
+      <c r="Q21" s="10">
+        <v>42.39</v>
       </c>
       <c r="R21" s="10">
         <v>713</v>
       </c>
-      <c r="S21" s="10" t="s">
-        <v>66</v>
+      <c r="S21" s="10">
+        <v>4.4000000000000004</v>
       </c>
       <c r="T21" s="10">
         <v>731</v>
       </c>
-      <c r="U21" s="10" t="s">
-        <v>207</v>
+      <c r="U21" s="10">
+        <v>64.27</v>
       </c>
       <c r="V21" s="10">
         <v>802</v>
@@ -3146,69 +2435,69 @@
         <v>754</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="11">
         <v>7952</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>208</v>
+      <c r="E22" s="10">
+        <v>11.02</v>
       </c>
       <c r="F22" s="10">
         <v>856</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>54</v>
+      <c r="G22" s="10">
+        <v>6.86</v>
       </c>
       <c r="H22" s="10">
         <v>781</v>
       </c>
-      <c r="I22" s="10" t="s">
-        <v>209</v>
+      <c r="I22" s="10">
+        <v>15.27</v>
       </c>
       <c r="J22" s="10">
         <v>806</v>
       </c>
-      <c r="K22" s="10" t="s">
-        <v>98</v>
+      <c r="K22" s="10">
+        <v>2.0499999999999998</v>
       </c>
       <c r="L22" s="10">
         <v>850</v>
       </c>
-      <c r="M22" s="10" t="s">
-        <v>210</v>
+      <c r="M22" s="10">
+        <v>49.45</v>
       </c>
       <c r="N22" s="10">
         <v>840</v>
       </c>
-      <c r="O22" s="10" t="s">
-        <v>211</v>
+      <c r="O22" s="10">
+        <v>14.46</v>
       </c>
       <c r="P22" s="10">
         <v>916</v>
       </c>
-      <c r="Q22" s="10" t="s">
-        <v>212</v>
+      <c r="Q22" s="10">
+        <v>48.93</v>
       </c>
       <c r="R22" s="10">
         <v>848</v>
       </c>
-      <c r="S22" s="10" t="s">
-        <v>34</v>
+      <c r="S22" s="10">
+        <v>4.8</v>
       </c>
       <c r="T22" s="10">
         <v>849</v>
       </c>
-      <c r="U22" s="10" t="s">
-        <v>213</v>
+      <c r="U22" s="10">
+        <v>51.38</v>
       </c>
       <c r="V22" s="10">
         <v>609</v>
@@ -3220,12 +2509,12 @@
         <v>597</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>25</v>
@@ -3233,56 +2522,56 @@
       <c r="D23" s="11">
         <v>7922</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>39</v>
+      <c r="E23" s="10">
+        <v>11.12</v>
       </c>
       <c r="F23" s="10">
         <v>834</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>48</v>
+      <c r="G23" s="10">
+        <v>7.26</v>
       </c>
       <c r="H23" s="10">
         <v>876</v>
       </c>
-      <c r="I23" s="10" t="s">
-        <v>214</v>
+      <c r="I23" s="10">
+        <v>13.62</v>
       </c>
       <c r="J23" s="10">
         <v>705</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>75</v>
+      <c r="K23" s="10">
+        <v>1.99</v>
       </c>
       <c r="L23" s="10">
         <v>794</v>
       </c>
-      <c r="M23" s="10" t="s">
-        <v>215</v>
+      <c r="M23" s="10">
+        <v>51.35</v>
       </c>
       <c r="N23" s="10">
         <v>753</v>
       </c>
-      <c r="O23" s="10" t="s">
-        <v>216</v>
+      <c r="O23" s="10">
+        <v>14.9</v>
       </c>
       <c r="P23" s="10">
         <v>862</v>
       </c>
-      <c r="Q23" s="10" t="s">
-        <v>217</v>
+      <c r="Q23" s="10">
+        <v>42.25</v>
       </c>
       <c r="R23" s="10">
         <v>710</v>
       </c>
-      <c r="S23" s="10" t="s">
-        <v>34</v>
+      <c r="S23" s="10">
+        <v>4.8</v>
       </c>
       <c r="T23" s="10">
         <v>849</v>
       </c>
-      <c r="U23" s="10" t="s">
-        <v>218</v>
+      <c r="U23" s="10">
+        <v>57.65</v>
       </c>
       <c r="V23" s="10">
         <v>703</v>
@@ -3294,69 +2583,69 @@
         <v>836</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>303</v>
+        <v>66</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="D24" s="11">
         <v>7915</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>50</v>
+      <c r="E24" s="10">
+        <v>11.11</v>
       </c>
       <c r="F24" s="10">
         <v>836</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>40</v>
+      <c r="G24" s="10">
+        <v>7.42</v>
       </c>
       <c r="H24" s="10">
         <v>915</v>
       </c>
-      <c r="I24" s="10" t="s">
-        <v>220</v>
+      <c r="I24" s="10">
+        <v>14.35</v>
       </c>
       <c r="J24" s="10">
         <v>750</v>
       </c>
-      <c r="K24" s="10" t="s">
-        <v>75</v>
+      <c r="K24" s="10">
+        <v>1.99</v>
       </c>
       <c r="L24" s="10">
         <v>794</v>
       </c>
-      <c r="M24" s="10" t="s">
-        <v>221</v>
+      <c r="M24" s="10">
+        <v>50.1</v>
       </c>
       <c r="N24" s="10">
         <v>810</v>
       </c>
-      <c r="O24" s="10" t="s">
-        <v>222</v>
+      <c r="O24" s="10">
+        <v>14.82</v>
       </c>
       <c r="P24" s="10">
         <v>871</v>
       </c>
-      <c r="Q24" s="10" t="s">
-        <v>223</v>
+      <c r="Q24" s="10">
+        <v>43.6</v>
       </c>
       <c r="R24" s="10">
         <v>738</v>
       </c>
-      <c r="S24" s="10" t="s">
-        <v>34</v>
+      <c r="S24" s="10">
+        <v>4.8</v>
       </c>
       <c r="T24" s="10">
         <v>849</v>
       </c>
-      <c r="U24" s="10" t="s">
-        <v>224</v>
+      <c r="U24" s="10">
+        <v>51.52</v>
       </c>
       <c r="V24" s="10">
         <v>611</v>
@@ -3368,12 +2657,12 @@
         <v>741</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>304</v>
+        <v>67</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>24</v>
@@ -3381,56 +2670,56 @@
       <c r="D25" s="11">
         <v>7837</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>175</v>
+      <c r="E25" s="10">
+        <v>11.01</v>
       </c>
       <c r="F25" s="10">
         <v>858</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>225</v>
+      <c r="G25" s="10">
+        <v>6.73</v>
       </c>
       <c r="H25" s="10">
         <v>750</v>
       </c>
-      <c r="I25" s="10" t="s">
-        <v>226</v>
+      <c r="I25" s="10">
+        <v>13.97</v>
       </c>
       <c r="J25" s="10">
         <v>727</v>
       </c>
-      <c r="K25" s="10" t="s">
-        <v>227</v>
+      <c r="K25" s="10">
+        <v>1.96</v>
       </c>
       <c r="L25" s="10">
         <v>767</v>
       </c>
-      <c r="M25" s="10" t="s">
-        <v>228</v>
+      <c r="M25" s="10">
+        <v>49.07</v>
       </c>
       <c r="N25" s="10">
         <v>858</v>
       </c>
-      <c r="O25" s="10" t="s">
-        <v>229</v>
+      <c r="O25" s="10">
+        <v>14.4</v>
       </c>
       <c r="P25" s="10">
         <v>924</v>
       </c>
-      <c r="Q25" s="10" t="s">
-        <v>230</v>
+      <c r="Q25" s="10">
+        <v>43.23</v>
       </c>
       <c r="R25" s="10">
         <v>730</v>
       </c>
-      <c r="S25" s="10" t="s">
-        <v>45</v>
+      <c r="S25" s="10">
+        <v>4.7</v>
       </c>
       <c r="T25" s="10">
         <v>819</v>
       </c>
-      <c r="U25" s="10" t="s">
-        <v>231</v>
+      <c r="U25" s="10">
+        <v>57.37</v>
       </c>
       <c r="V25" s="10">
         <v>698</v>
@@ -3442,69 +2731,69 @@
         <v>706</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>305</v>
+        <v>68</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="D26" s="11">
         <v>7803</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>59</v>
+      <c r="E26" s="10">
+        <v>10.92</v>
       </c>
       <c r="F26" s="10">
         <v>878</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>232</v>
+      <c r="G26" s="10">
+        <v>7.29</v>
       </c>
       <c r="H26" s="10">
         <v>883</v>
       </c>
-      <c r="I26" s="10" t="s">
-        <v>233</v>
+      <c r="I26" s="10">
+        <v>13.43</v>
       </c>
       <c r="J26" s="10">
         <v>693</v>
       </c>
-      <c r="K26" s="10" t="s">
-        <v>75</v>
+      <c r="K26" s="10">
+        <v>1.99</v>
       </c>
       <c r="L26" s="10">
         <v>794</v>
       </c>
-      <c r="M26" s="10" t="s">
-        <v>234</v>
+      <c r="M26" s="10">
+        <v>47.68</v>
       </c>
       <c r="N26" s="10">
         <v>925</v>
       </c>
-      <c r="O26" s="10" t="s">
-        <v>235</v>
+      <c r="O26" s="10">
+        <v>15.14</v>
       </c>
       <c r="P26" s="10">
         <v>833</v>
       </c>
-      <c r="Q26" s="10" t="s">
-        <v>236</v>
+      <c r="Q26" s="10">
+        <v>34.33</v>
       </c>
       <c r="R26" s="10">
         <v>550</v>
       </c>
-      <c r="S26" s="10" t="s">
-        <v>52</v>
+      <c r="S26" s="10">
+        <v>4.3</v>
       </c>
       <c r="T26" s="10">
         <v>702</v>
       </c>
-      <c r="U26" s="10" t="s">
-        <v>61</v>
+      <c r="U26" s="10">
+        <v>56.69</v>
       </c>
       <c r="V26" s="10">
         <v>688</v>
@@ -3516,69 +2805,69 @@
         <v>857</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>306</v>
+        <v>69</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D27" s="11">
         <v>7788</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>145</v>
+      <c r="E27" s="10">
+        <v>11.16</v>
       </c>
       <c r="F27" s="10">
         <v>825</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>110</v>
+      <c r="G27" s="10">
+        <v>7.09</v>
       </c>
       <c r="H27" s="10">
         <v>835</v>
       </c>
-      <c r="I27" s="10" t="s">
-        <v>233</v>
+      <c r="I27" s="10">
+        <v>13.43</v>
       </c>
       <c r="J27" s="10">
         <v>693</v>
       </c>
-      <c r="K27" s="10" t="s">
-        <v>237</v>
+      <c r="K27" s="10">
+        <v>1.87</v>
       </c>
       <c r="L27" s="10">
         <v>687</v>
       </c>
-      <c r="M27" s="10" t="s">
-        <v>238</v>
+      <c r="M27" s="10">
+        <v>49.28</v>
       </c>
       <c r="N27" s="10">
         <v>848</v>
       </c>
-      <c r="O27" s="10" t="s">
-        <v>216</v>
+      <c r="O27" s="10">
+        <v>14.9</v>
       </c>
       <c r="P27" s="10">
         <v>862</v>
       </c>
-      <c r="Q27" s="10" t="s">
-        <v>239</v>
+      <c r="Q27" s="10">
+        <v>39.72</v>
       </c>
       <c r="R27" s="10">
         <v>659</v>
       </c>
-      <c r="S27" s="10" t="s">
-        <v>136</v>
+      <c r="S27" s="10">
+        <v>4.5999999999999996</v>
       </c>
       <c r="T27" s="10">
         <v>790</v>
       </c>
-      <c r="U27" s="10" t="s">
-        <v>240</v>
+      <c r="U27" s="10">
+        <v>63.73</v>
       </c>
       <c r="V27" s="10">
         <v>794</v>
@@ -3590,12 +2879,12 @@
         <v>795</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>307</v>
+        <v>70</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>27</v>
@@ -3603,56 +2892,56 @@
       <c r="D28" s="11">
         <v>7777</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>241</v>
+      <c r="E28" s="10">
+        <v>11.06</v>
       </c>
       <c r="F28" s="10">
         <v>847</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>242</v>
+      <c r="G28" s="10">
+        <v>7.27</v>
       </c>
       <c r="H28" s="10">
         <v>878</v>
       </c>
-      <c r="I28" s="10" t="s">
-        <v>41</v>
+      <c r="I28" s="10">
+        <v>14.12</v>
       </c>
       <c r="J28" s="10">
         <v>736</v>
       </c>
-      <c r="K28" s="10" t="s">
-        <v>237</v>
+      <c r="K28" s="10">
+        <v>1.87</v>
       </c>
       <c r="L28" s="10">
         <v>687</v>
       </c>
-      <c r="M28" s="10" t="s">
-        <v>243</v>
+      <c r="M28" s="10">
+        <v>49.17</v>
       </c>
       <c r="N28" s="10">
         <v>853</v>
       </c>
-      <c r="O28" s="10" t="s">
-        <v>132</v>
+      <c r="O28" s="10">
+        <v>14.54</v>
       </c>
       <c r="P28" s="10">
         <v>906</v>
       </c>
-      <c r="Q28" s="10" t="s">
-        <v>244</v>
+      <c r="Q28" s="10">
+        <v>39.619999999999997</v>
       </c>
       <c r="R28" s="10">
         <v>657</v>
       </c>
-      <c r="S28" s="10" t="s">
-        <v>136</v>
+      <c r="S28" s="10">
+        <v>4.5999999999999996</v>
       </c>
       <c r="T28" s="10">
         <v>790</v>
       </c>
-      <c r="U28" s="10" t="s">
-        <v>245</v>
+      <c r="U28" s="10">
+        <v>54.26</v>
       </c>
       <c r="V28" s="10">
         <v>652</v>
@@ -3664,69 +2953,69 @@
         <v>771</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>308</v>
+        <v>71</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D29" s="11">
         <v>7710</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>33</v>
+      <c r="E29" s="10">
+        <v>11.04</v>
       </c>
       <c r="F29" s="10">
         <v>852</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>57</v>
+      <c r="G29" s="10">
+        <v>6.92</v>
       </c>
       <c r="H29" s="10">
         <v>795</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>246</v>
+      <c r="I29" s="10">
+        <v>14.69</v>
       </c>
       <c r="J29" s="10">
         <v>771</v>
       </c>
-      <c r="K29" s="10" t="s">
-        <v>183</v>
+      <c r="K29" s="10">
+        <v>1.93</v>
       </c>
       <c r="L29" s="10">
         <v>740</v>
       </c>
-      <c r="M29" s="10" t="s">
-        <v>247</v>
+      <c r="M29" s="10">
+        <v>49.5</v>
       </c>
       <c r="N29" s="10">
         <v>838</v>
       </c>
-      <c r="O29" s="10" t="s">
-        <v>248</v>
+      <c r="O29" s="10">
+        <v>14.87</v>
       </c>
       <c r="P29" s="10">
         <v>865</v>
       </c>
-      <c r="Q29" s="10" t="s">
-        <v>249</v>
+      <c r="Q29" s="10">
+        <v>42.71</v>
       </c>
       <c r="R29" s="10">
         <v>720</v>
       </c>
-      <c r="S29" s="10" t="s">
-        <v>136</v>
+      <c r="S29" s="10">
+        <v>4.5999999999999996</v>
       </c>
       <c r="T29" s="10">
         <v>790</v>
       </c>
-      <c r="U29" s="10" t="s">
-        <v>250</v>
+      <c r="U29" s="10">
+        <v>54.73</v>
       </c>
       <c r="V29" s="10">
         <v>659</v>
@@ -3738,12 +3027,12 @@
         <v>680</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>309</v>
+        <v>72</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>25</v>
@@ -3751,56 +3040,56 @@
       <c r="D30" s="11">
         <v>7682</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>251</v>
+      <c r="E30" s="10">
+        <v>11.57</v>
       </c>
       <c r="F30" s="10">
         <v>738</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>150</v>
+      <c r="G30" s="10">
+        <v>7.04</v>
       </c>
       <c r="H30" s="10">
         <v>823</v>
       </c>
-      <c r="I30" s="10" t="s">
-        <v>252</v>
+      <c r="I30" s="10">
+        <v>11.97</v>
       </c>
       <c r="J30" s="10">
         <v>605</v>
       </c>
-      <c r="K30" s="10" t="s">
-        <v>98</v>
+      <c r="K30" s="10">
+        <v>2.0499999999999998</v>
       </c>
       <c r="L30" s="10">
         <v>850</v>
       </c>
-      <c r="M30" s="10" t="s">
-        <v>253</v>
+      <c r="M30" s="10">
+        <v>49.6</v>
       </c>
       <c r="N30" s="10">
         <v>833</v>
       </c>
-      <c r="O30" s="10" t="s">
-        <v>185</v>
+      <c r="O30" s="10">
+        <v>14.83</v>
       </c>
       <c r="P30" s="10">
         <v>870</v>
       </c>
-      <c r="Q30" s="10" t="s">
-        <v>254</v>
+      <c r="Q30" s="10">
+        <v>41.25</v>
       </c>
       <c r="R30" s="10">
         <v>690</v>
       </c>
-      <c r="S30" s="10" t="s">
-        <v>66</v>
+      <c r="S30" s="10">
+        <v>4.4000000000000004</v>
       </c>
       <c r="T30" s="10">
         <v>731</v>
       </c>
-      <c r="U30" s="10" t="s">
-        <v>255</v>
+      <c r="U30" s="10">
+        <v>59.67</v>
       </c>
       <c r="V30" s="10">
         <v>733</v>
@@ -3812,69 +3101,69 @@
         <v>809</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>310</v>
+        <v>73</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>256</v>
+        <v>46</v>
       </c>
       <c r="D31" s="11">
         <v>7649</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>64</v>
+      <c r="E31" s="10">
+        <v>11.05</v>
       </c>
       <c r="F31" s="10">
         <v>850</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>202</v>
+      <c r="G31" s="10">
+        <v>7.21</v>
       </c>
       <c r="H31" s="10">
         <v>864</v>
       </c>
-      <c r="I31" s="10" t="s">
-        <v>257</v>
+      <c r="I31" s="10">
+        <v>12.8</v>
       </c>
       <c r="J31" s="10">
         <v>655</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>183</v>
+      <c r="K31" s="10">
+        <v>1.93</v>
       </c>
       <c r="L31" s="10">
         <v>740</v>
       </c>
-      <c r="M31" s="10" t="s">
-        <v>258</v>
+      <c r="M31" s="10">
+        <v>49.67</v>
       </c>
       <c r="N31" s="10">
         <v>830</v>
       </c>
-      <c r="O31" s="10" t="s">
-        <v>185</v>
+      <c r="O31" s="10">
+        <v>14.83</v>
       </c>
       <c r="P31" s="10">
         <v>870</v>
       </c>
-      <c r="Q31" s="10" t="s">
-        <v>259</v>
+      <c r="Q31" s="10">
+        <v>42.48</v>
       </c>
       <c r="R31" s="10">
         <v>715</v>
       </c>
-      <c r="S31" s="10" t="s">
-        <v>37</v>
+      <c r="S31" s="10">
+        <v>5</v>
       </c>
       <c r="T31" s="10">
         <v>910</v>
       </c>
-      <c r="U31" s="10" t="s">
-        <v>260</v>
+      <c r="U31" s="10">
+        <v>54.91</v>
       </c>
       <c r="V31" s="10">
         <v>662</v>
@@ -3886,12 +3175,12 @@
         <v>553</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>311</v>
+        <v>74</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>29</v>
@@ -3899,56 +3188,56 @@
       <c r="D32" s="11">
         <v>7610</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>261</v>
+      <c r="E32" s="10">
+        <v>11.15</v>
       </c>
       <c r="F32" s="10">
         <v>827</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>110</v>
+      <c r="G32" s="10">
+        <v>7.09</v>
       </c>
       <c r="H32" s="10">
         <v>835</v>
       </c>
-      <c r="I32" s="10" t="s">
-        <v>262</v>
+      <c r="I32" s="10">
+        <v>13.92</v>
       </c>
       <c r="J32" s="10">
         <v>723</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>263</v>
+      <c r="K32" s="10">
+        <v>1.84</v>
       </c>
       <c r="L32" s="10">
         <v>661</v>
       </c>
-      <c r="M32" s="10" t="s">
-        <v>264</v>
+      <c r="M32" s="10">
+        <v>49.79</v>
       </c>
       <c r="N32" s="10">
         <v>824</v>
       </c>
-      <c r="O32" s="10" t="s">
-        <v>265</v>
+      <c r="O32" s="10">
+        <v>14.65</v>
       </c>
       <c r="P32" s="10">
         <v>892</v>
       </c>
-      <c r="Q32" s="10" t="s">
-        <v>266</v>
+      <c r="Q32" s="10">
+        <v>43.75</v>
       </c>
       <c r="R32" s="10">
         <v>741</v>
       </c>
-      <c r="S32" s="10" t="s">
-        <v>66</v>
+      <c r="S32" s="10">
+        <v>4.4000000000000004</v>
       </c>
       <c r="T32" s="10">
         <v>731</v>
       </c>
-      <c r="U32" s="10" t="s">
-        <v>267</v>
+      <c r="U32" s="10">
+        <v>59.56</v>
       </c>
       <c r="V32" s="10">
         <v>731</v>
@@ -3960,12 +3249,12 @@
         <v>645</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>32</v>
@@ -3973,56 +3262,56 @@
       <c r="D33" s="11">
         <v>7539</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>268</v>
+      <c r="E33" s="10">
+        <v>11.32</v>
       </c>
       <c r="F33" s="10">
         <v>791</v>
       </c>
-      <c r="G33" s="10" t="s">
-        <v>36</v>
+      <c r="G33" s="10">
+        <v>7.19</v>
       </c>
       <c r="H33" s="10">
         <v>859</v>
       </c>
-      <c r="I33" s="10" t="s">
-        <v>65</v>
+      <c r="I33" s="10">
+        <v>13.23</v>
       </c>
       <c r="J33" s="10">
         <v>681</v>
       </c>
-      <c r="K33" s="10" t="s">
-        <v>89</v>
+      <c r="K33" s="10">
+        <v>2.08</v>
       </c>
       <c r="L33" s="10">
         <v>878</v>
       </c>
-      <c r="M33" s="10" t="s">
-        <v>269</v>
+      <c r="M33" s="10">
+        <v>52.41</v>
       </c>
       <c r="N33" s="10">
         <v>707</v>
       </c>
-      <c r="O33" s="10" t="s">
-        <v>270</v>
+      <c r="O33" s="10">
+        <v>14.8</v>
       </c>
       <c r="P33" s="10">
         <v>874</v>
       </c>
-      <c r="Q33" s="10" t="s">
-        <v>271</v>
+      <c r="Q33" s="10">
+        <v>42.81</v>
       </c>
       <c r="R33" s="10">
         <v>722</v>
       </c>
-      <c r="S33" s="10" t="s">
-        <v>42</v>
+      <c r="S33" s="10">
+        <v>4.9000000000000004</v>
       </c>
       <c r="T33" s="10">
         <v>880</v>
       </c>
-      <c r="U33" s="10" t="s">
-        <v>272</v>
+      <c r="U33" s="10">
+        <v>50.1</v>
       </c>
       <c r="V33" s="10">
         <v>590</v>
@@ -4034,12 +3323,12 @@
         <v>557</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>30</v>
@@ -4047,56 +3336,56 @@
       <c r="D34" s="11">
         <v>7528</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>50</v>
+      <c r="E34" s="10">
+        <v>11.11</v>
       </c>
       <c r="F34" s="10">
         <v>836</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>273</v>
+      <c r="G34" s="10">
+        <v>6.94</v>
       </c>
       <c r="H34" s="10">
         <v>799</v>
       </c>
-      <c r="I34" s="10" t="s">
-        <v>274</v>
+      <c r="I34" s="10">
+        <v>14.42</v>
       </c>
       <c r="J34" s="10">
         <v>754</v>
       </c>
-      <c r="K34" s="10" t="s">
-        <v>275</v>
+      <c r="K34" s="10">
+        <v>1.9</v>
       </c>
       <c r="L34" s="10">
         <v>714</v>
       </c>
-      <c r="M34" s="10" t="s">
-        <v>276</v>
+      <c r="M34" s="10">
+        <v>51.28</v>
       </c>
       <c r="N34" s="10">
         <v>757</v>
       </c>
-      <c r="O34" s="10" t="s">
-        <v>222</v>
+      <c r="O34" s="10">
+        <v>14.82</v>
       </c>
       <c r="P34" s="10">
         <v>871</v>
       </c>
-      <c r="Q34" s="10" t="s">
-        <v>277</v>
+      <c r="Q34" s="10">
+        <v>41.83</v>
       </c>
       <c r="R34" s="10">
         <v>702</v>
       </c>
-      <c r="S34" s="10" t="s">
-        <v>68</v>
+      <c r="S34" s="10">
+        <v>4.5</v>
       </c>
       <c r="T34" s="10">
         <v>760</v>
       </c>
-      <c r="U34" s="10" t="s">
-        <v>278</v>
+      <c r="U34" s="10">
+        <v>56.21</v>
       </c>
       <c r="V34" s="10">
         <v>681</v>
@@ -4108,69 +3397,69 @@
         <v>654</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>279</v>
+        <v>47</v>
       </c>
       <c r="D35" s="11">
         <v>7507</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>280</v>
+      <c r="E35" s="10">
+        <v>11.27</v>
       </c>
       <c r="F35" s="10">
         <v>801</v>
       </c>
-      <c r="G35" s="10" t="s">
-        <v>273</v>
+      <c r="G35" s="10">
+        <v>6.94</v>
       </c>
       <c r="H35" s="10">
         <v>799</v>
       </c>
-      <c r="I35" s="10" t="s">
-        <v>281</v>
+      <c r="I35" s="10">
+        <v>14.07</v>
       </c>
       <c r="J35" s="10">
         <v>733</v>
       </c>
-      <c r="K35" s="10" t="s">
-        <v>75</v>
+      <c r="K35" s="10">
+        <v>1.99</v>
       </c>
       <c r="L35" s="10">
         <v>794</v>
       </c>
-      <c r="M35" s="10" t="s">
-        <v>282</v>
+      <c r="M35" s="10">
+        <v>49.88</v>
       </c>
       <c r="N35" s="10">
         <v>820</v>
       </c>
-      <c r="O35" s="10" t="s">
-        <v>209</v>
+      <c r="O35" s="10">
+        <v>15.27</v>
       </c>
       <c r="P35" s="10">
         <v>817</v>
       </c>
-      <c r="Q35" s="10" t="s">
-        <v>283</v>
+      <c r="Q35" s="10">
+        <v>42.02</v>
       </c>
       <c r="R35" s="10">
         <v>706</v>
       </c>
-      <c r="S35" s="10" t="s">
-        <v>66</v>
+      <c r="S35" s="10">
+        <v>4.4000000000000004</v>
       </c>
       <c r="T35" s="10">
         <v>731</v>
       </c>
-      <c r="U35" s="10" t="s">
-        <v>284</v>
+      <c r="U35" s="10">
+        <v>57.5</v>
       </c>
       <c r="V35" s="10">
         <v>700</v>
@@ -4182,10 +3471,10 @@
         <v>606</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="I39" s="7"/>
     </row>
   </sheetData>
